--- a/utils/run_responsibility.xlsx
+++ b/utils/run_responsibility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vetonmatoshi/Documents/Git/LEXTREME/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E7AD0293-8226-9740-AC31-6E912E44C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D010B243-F1E8-2D44-B2EC-9235100E5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responsibility!$A$1:$G$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -370,7 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -678,7 +677,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,7 +729,7 @@
         <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -753,7 +752,7 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -776,7 +775,7 @@
         <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -799,7 +798,7 @@
         <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -822,7 +821,7 @@
         <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -845,7 +844,7 @@
         <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,7 +890,7 @@
         <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,7 +936,7 @@
         <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -960,7 +959,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,7 +982,7 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1006,7 +1005,7 @@
         <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,7 +1051,7 @@
         <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,7 +1538,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1559,7 +1558,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,7 +1738,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,7 +1758,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
